--- a/ExperimentalAnalysis/EditedScripts/RenamingFiles.xlsx
+++ b/ExperimentalAnalysis/EditedScripts/RenamingFiles.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MixedRealityDevelopment\CV4Holo\Hololens2ArUcoDetection\PythonScriptsForExperiment\EditedScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MixedRealityDevelopment\CV4Holo\Hololens2ArUcoDetection\ExperimentalAnalysis\EditedScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E819969-F237-4DA8-B3F8-28B313C42E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0A74D3-6257-45E6-84B9-0912895DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{763FAA15-993B-4228-A9F9-973AF70F6863}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{763FAA15-993B-4228-A9F9-973AF70F6863}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1 (4)" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1 (6)" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1 (7)" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1 (5)" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1 (8)" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1 (9)" sheetId="11" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1 (4)" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1 (6)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1 (7)" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1 (5)" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1 (8)" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="593">
   <si>
     <t>Old names</t>
   </si>
@@ -1586,6 +1587,240 @@
   </si>
   <si>
     <t>2_medium_trial2v3_9_POLGroundTruth.csv.csv</t>
+  </si>
+  <si>
+    <t>5_fast_10_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_10_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_11_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_11_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_12_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_12_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_13_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_13_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_14_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_14_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_15_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_15_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_16_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_16_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_17_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_17_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_18_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_18_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_19_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_19_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_1_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_1_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_20_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_20_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_2_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_2_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_3_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_3_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_4_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_4_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_5_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_6_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_6_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_7_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_7_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_8_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_8_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_fast_9_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_fast_9_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_10_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_10_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_11_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_11_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_12_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_12_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_13_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_13_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_14_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_14_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_15_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_15_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_16_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_16_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_17_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_17_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_18_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_18_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_19_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_19_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_1_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_1_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_20_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_20_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_2_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_2_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_3_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_3_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_4_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_4_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_5_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_6_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_6_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_7_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_7_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_8_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_8_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>5_medium_9_HoloData.csv</t>
+  </si>
+  <si>
+    <t>5_medium_9_POLGroundTruth.csv</t>
   </si>
 </sst>
 </file>
@@ -1945,6 +2180,2436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68179A7-9D9F-4160-91BE-1E7E5211F7EB}">
+  <dimension ref="A1:F213"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2" t="str">
+        <f>C2</f>
+        <v>5_medium_10_HoloData.csv</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="str">
+        <f>E2&amp;D2&amp;E2</f>
+        <v>"5_medium_10_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D40" si="0">C3</f>
+        <v>5_medium_10_POLGroundTruth.csv</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F40" si="1">E3&amp;D3&amp;E3</f>
+        <v>"5_medium_10_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_11_HoloData.csv</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_11_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_11_POLGroundTruth.csv</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_11_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_12_HoloData.csv</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_12_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_12_POLGroundTruth.csv</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_12_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_13_HoloData.csv</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_13_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>561</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_13_POLGroundTruth.csv</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_13_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_14_HoloData.csv</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_14_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>563</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_14_POLGroundTruth.csv</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_14_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>564</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_15_HoloData.csv</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_15_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>565</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_15_POLGroundTruth.csv</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_15_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>566</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_16_HoloData.csv</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_16_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>567</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_16_POLGroundTruth.csv</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_16_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>568</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_17_HoloData.csv</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_17_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>530</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>569</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_17_POLGroundTruth.csv</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_17_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>531</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>570</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_18_HoloData.csv</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_18_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>571</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_18_POLGroundTruth.csv</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_18_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>533</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>572</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_19_HoloData.csv</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_19_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>534</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>573</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_19_POLGroundTruth.csv</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_19_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>535</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>574</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_1_HoloData.csv</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_1_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>536</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>575</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_1_POLGroundTruth.csv</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_1_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>537</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>576</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_20_HoloData.csv</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_20_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>538</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>577</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_20_POLGroundTruth.csv</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_20_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>539</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>578</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_2_HoloData.csv</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_2_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>540</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>579</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_2_POLGroundTruth.csv</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_2_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>541</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>580</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_3_HoloData.csv</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_3_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>542</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>581</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_3_POLGroundTruth.csv</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_3_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>543</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>582</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_4_HoloData.csv</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_4_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>583</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_4_POLGroundTruth.csv</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_4_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>545</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>584</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_5_HoloData.csv</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_5_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>546</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>585</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_6_HoloData.csv</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_6_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>586</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_6_POLGroundTruth.csv</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_6_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>548</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>587</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_7_HoloData.csv</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_7_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>549</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>588</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_7_POLGroundTruth.csv</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_7_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>550</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>589</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_8_HoloData.csv</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_8_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>551</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>590</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_8_POLGroundTruth.csv</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_8_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>552</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>591</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_9_HoloData.csv</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_9_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>553</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>592</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>5_medium_9_POLGroundTruth.csv</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>"5_medium_9_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <f>E2&amp;A2&amp;E2</f>
+        <v>"5_fast_10_HoloData.csv"</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="str">
+        <f>B45&amp;C45&amp;A45&amp;C45&amp;F2</f>
+        <v>ren "5_fast_10_HoloData.csv" "5_medium_10_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <f>E3&amp;A3&amp;E3</f>
+        <v>"5_fast_10_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="str">
+        <f>B46&amp;C46&amp;A46&amp;C46&amp;F3</f>
+        <v>ren "5_fast_10_POLGroundTruth.csv" "5_medium_10_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <f>E4&amp;A4&amp;E4</f>
+        <v>"5_fast_11_HoloData.csv"</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="str">
+        <f>B47&amp;C47&amp;A47&amp;C47&amp;F4</f>
+        <v>ren "5_fast_11_HoloData.csv" "5_medium_11_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <f>E5&amp;A5&amp;E5</f>
+        <v>"5_fast_11_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="str">
+        <f>B48&amp;C48&amp;A48&amp;C48&amp;F5</f>
+        <v>ren "5_fast_11_POLGroundTruth.csv" "5_medium_11_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <f>E6&amp;A6&amp;E6</f>
+        <v>"5_fast_12_HoloData.csv"</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="str">
+        <f>B49&amp;C49&amp;A49&amp;C49&amp;F6</f>
+        <v>ren "5_fast_12_HoloData.csv" "5_medium_12_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <f>E7&amp;A7&amp;E7</f>
+        <v>"5_fast_12_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="str">
+        <f>B50&amp;C50&amp;A50&amp;C50&amp;F7</f>
+        <v>ren "5_fast_12_POLGroundTruth.csv" "5_medium_12_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <f>E8&amp;A8&amp;E8</f>
+        <v>"5_fast_13_HoloData.csv"</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="str">
+        <f>B51&amp;C51&amp;A51&amp;C51&amp;F8</f>
+        <v>ren "5_fast_13_HoloData.csv" "5_medium_13_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <f>E9&amp;A9&amp;E9</f>
+        <v>"5_fast_13_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" t="str">
+        <f>B52&amp;C52&amp;A52&amp;C52&amp;F9</f>
+        <v>ren "5_fast_13_POLGroundTruth.csv" "5_medium_13_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <f>E10&amp;A10&amp;E10</f>
+        <v>"5_fast_14_HoloData.csv"</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="str">
+        <f>B53&amp;C53&amp;A53&amp;C53&amp;F10</f>
+        <v>ren "5_fast_14_HoloData.csv" "5_medium_14_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <f>E11&amp;A11&amp;E11</f>
+        <v>"5_fast_14_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="str">
+        <f>B54&amp;C54&amp;A54&amp;C54&amp;F11</f>
+        <v>ren "5_fast_14_POLGroundTruth.csv" "5_medium_14_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <f>E12&amp;A12&amp;E12</f>
+        <v>"5_fast_15_HoloData.csv"</v>
+      </c>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="str">
+        <f>B55&amp;C55&amp;A55&amp;C55&amp;F12</f>
+        <v>ren "5_fast_15_HoloData.csv" "5_medium_15_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <f>E13&amp;A13&amp;E13</f>
+        <v>"5_fast_15_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="str">
+        <f>B56&amp;C56&amp;A56&amp;C56&amp;F13</f>
+        <v>ren "5_fast_15_POLGroundTruth.csv" "5_medium_15_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
+        <f>E14&amp;A14&amp;E14</f>
+        <v>"5_fast_16_HoloData.csv"</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="str">
+        <f>B57&amp;C57&amp;A57&amp;C57&amp;F14</f>
+        <v>ren "5_fast_16_HoloData.csv" "5_medium_16_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <f>E15&amp;A15&amp;E15</f>
+        <v>"5_fast_16_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" t="str">
+        <f>B58&amp;C58&amp;A58&amp;C58&amp;F15</f>
+        <v>ren "5_fast_16_POLGroundTruth.csv" "5_medium_16_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
+        <f>E16&amp;A16&amp;E16</f>
+        <v>"5_fast_17_HoloData.csv"</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="str">
+        <f>B59&amp;C59&amp;A59&amp;C59&amp;F16</f>
+        <v>ren "5_fast_17_HoloData.csv" "5_medium_17_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <f>E17&amp;A17&amp;E17</f>
+        <v>"5_fast_17_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" t="str">
+        <f>B60&amp;C60&amp;A60&amp;C60&amp;F17</f>
+        <v>ren "5_fast_17_POLGroundTruth.csv" "5_medium_17_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <f>E18&amp;A18&amp;E18</f>
+        <v>"5_fast_18_HoloData.csv"</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" t="str">
+        <f>B61&amp;C61&amp;A61&amp;C61&amp;F18</f>
+        <v>ren "5_fast_18_HoloData.csv" "5_medium_18_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <f>E19&amp;A19&amp;E19</f>
+        <v>"5_fast_18_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" t="str">
+        <f>B62&amp;C62&amp;A62&amp;C62&amp;F19</f>
+        <v>ren "5_fast_18_POLGroundTruth.csv" "5_medium_18_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <f>E20&amp;A20&amp;E20</f>
+        <v>"5_fast_19_HoloData.csv"</v>
+      </c>
+      <c r="B63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" t="str">
+        <f>B63&amp;C63&amp;A63&amp;C63&amp;F20</f>
+        <v>ren "5_fast_19_HoloData.csv" "5_medium_19_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <f>E21&amp;A21&amp;E21</f>
+        <v>"5_fast_19_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" t="str">
+        <f>B64&amp;C64&amp;A64&amp;C64&amp;F21</f>
+        <v>ren "5_fast_19_POLGroundTruth.csv" "5_medium_19_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <f>E22&amp;A22&amp;E22</f>
+        <v>"5_fast_1_HoloData.csv"</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" t="str">
+        <f>B65&amp;C65&amp;A65&amp;C65&amp;F22</f>
+        <v>ren "5_fast_1_HoloData.csv" "5_medium_1_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
+        <f>E23&amp;A23&amp;E23</f>
+        <v>"5_fast_1_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" t="str">
+        <f>B66&amp;C66&amp;A66&amp;C66&amp;F23</f>
+        <v>ren "5_fast_1_POLGroundTruth.csv" "5_medium_1_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <f>E24&amp;A24&amp;E24</f>
+        <v>"5_fast_20_HoloData.csv"</v>
+      </c>
+      <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" t="str">
+        <f>B67&amp;C67&amp;A67&amp;C67&amp;F24</f>
+        <v>ren "5_fast_20_HoloData.csv" "5_medium_20_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
+        <f>E25&amp;A25&amp;E25</f>
+        <v>"5_fast_20_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" t="str">
+        <f>B68&amp;C68&amp;A68&amp;C68&amp;F25</f>
+        <v>ren "5_fast_20_POLGroundTruth.csv" "5_medium_20_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <f>E26&amp;A26&amp;E26</f>
+        <v>"5_fast_2_HoloData.csv"</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" t="str">
+        <f>B69&amp;C69&amp;A69&amp;C69&amp;F26</f>
+        <v>ren "5_fast_2_HoloData.csv" "5_medium_2_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <f>E27&amp;A27&amp;E27</f>
+        <v>"5_fast_2_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" t="str">
+        <f>B70&amp;C70&amp;A70&amp;C70&amp;F27</f>
+        <v>ren "5_fast_2_POLGroundTruth.csv" "5_medium_2_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
+        <f>E28&amp;A28&amp;E28</f>
+        <v>"5_fast_3_HoloData.csv"</v>
+      </c>
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="str">
+        <f>B71&amp;C71&amp;A71&amp;C71&amp;F28</f>
+        <v>ren "5_fast_3_HoloData.csv" "5_medium_3_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
+        <f>E29&amp;A29&amp;E29</f>
+        <v>"5_fast_3_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="str">
+        <f>B72&amp;C72&amp;A72&amp;C72&amp;F29</f>
+        <v>ren "5_fast_3_POLGroundTruth.csv" "5_medium_3_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
+        <f>E30&amp;A30&amp;E30</f>
+        <v>"5_fast_4_HoloData.csv"</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" t="str">
+        <f>B73&amp;C73&amp;A73&amp;C73&amp;F30</f>
+        <v>ren "5_fast_4_HoloData.csv" "5_medium_4_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
+        <f>E31&amp;A31&amp;E31</f>
+        <v>"5_fast_4_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="str">
+        <f>B74&amp;C74&amp;A74&amp;C74&amp;F31</f>
+        <v>ren "5_fast_4_POLGroundTruth.csv" "5_medium_4_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
+        <f>E32&amp;A32&amp;E32</f>
+        <v>"5_fast_5_HoloData.csv"</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" t="str">
+        <f>B75&amp;C75&amp;A75&amp;C75&amp;F32</f>
+        <v>ren "5_fast_5_HoloData.csv" "5_medium_5_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
+        <f>E33&amp;A33&amp;E33</f>
+        <v>"5_fast_6_HoloData.csv"</v>
+      </c>
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" t="str">
+        <f>B76&amp;C76&amp;A76&amp;C76&amp;F33</f>
+        <v>ren "5_fast_6_HoloData.csv" "5_medium_6_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
+        <f>E34&amp;A34&amp;E34</f>
+        <v>"5_fast_6_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" t="str">
+        <f>B77&amp;C77&amp;A77&amp;C77&amp;F34</f>
+        <v>ren "5_fast_6_POLGroundTruth.csv" "5_medium_6_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
+        <f>E35&amp;A35&amp;E35</f>
+        <v>"5_fast_7_HoloData.csv"</v>
+      </c>
+      <c r="B78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" t="str">
+        <f>B78&amp;C78&amp;A78&amp;C78&amp;F35</f>
+        <v>ren "5_fast_7_HoloData.csv" "5_medium_7_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
+        <f>E36&amp;A36&amp;E36</f>
+        <v>"5_fast_7_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" t="s">
+        <v>95</v>
+      </c>
+      <c r="D79" t="str">
+        <f>B79&amp;C79&amp;A79&amp;C79&amp;F36</f>
+        <v>ren "5_fast_7_POLGroundTruth.csv" "5_medium_7_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
+        <f>E37&amp;A37&amp;E37</f>
+        <v>"5_fast_8_HoloData.csv"</v>
+      </c>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" t="str">
+        <f>B80&amp;C80&amp;A80&amp;C80&amp;F37</f>
+        <v>ren "5_fast_8_HoloData.csv" "5_medium_8_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <f>E38&amp;A38&amp;E38</f>
+        <v>"5_fast_8_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" t="str">
+        <f>B81&amp;C81&amp;A81&amp;C81&amp;F38</f>
+        <v>ren "5_fast_8_POLGroundTruth.csv" "5_medium_8_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <f>E39&amp;A39&amp;E39</f>
+        <v>"5_fast_9_HoloData.csv"</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" t="str">
+        <f>B82&amp;C82&amp;A82&amp;C82&amp;F39</f>
+        <v>ren "5_fast_9_HoloData.csv" "5_medium_9_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <f>E40&amp;A40&amp;E40</f>
+        <v>"5_fast_9_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" t="str">
+        <f>B83&amp;C83&amp;A83&amp;C83&amp;F40</f>
+        <v>ren "5_fast_9_POLGroundTruth.csv" "5_medium_9_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" t="e">
+        <f>B84&amp;C84&amp;A84&amp;C84&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B85" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" t="e">
+        <f>B85&amp;C85&amp;A85&amp;C85&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" t="e">
+        <f>B86&amp;C86&amp;A86&amp;C86&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" t="e">
+        <f>B87&amp;C87&amp;A87&amp;C87&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" t="e">
+        <f>B88&amp;C88&amp;A88&amp;C88&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" t="e">
+        <f>B89&amp;C89&amp;A89&amp;C89&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" t="e">
+        <f>B90&amp;C90&amp;A90&amp;C90&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="e">
+        <f>B91&amp;C91&amp;A91&amp;C91&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" t="e">
+        <f>B92&amp;C92&amp;A92&amp;C92&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" t="e">
+        <f>B93&amp;C93&amp;A93&amp;C93&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" t="e">
+        <f>B94&amp;C94&amp;A94&amp;C94&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" t="e">
+        <f>B95&amp;C95&amp;A95&amp;C95&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B96" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" t="e">
+        <f>B96&amp;C96&amp;A96&amp;C96&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" t="e">
+        <f>B97&amp;C97&amp;A97&amp;C97&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" t="e">
+        <f>B98&amp;C98&amp;A98&amp;C98&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" t="e">
+        <f>B99&amp;C99&amp;A99&amp;C99&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B100" t="s">
+        <v>93</v>
+      </c>
+      <c r="C100" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" t="e">
+        <f>B100&amp;C100&amp;A100&amp;C100&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" t="e">
+        <f>B101&amp;C101&amp;A101&amp;C101&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B102" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" t="e">
+        <f>B102&amp;C102&amp;A102&amp;C102&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B103" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" t="e">
+        <f>B103&amp;C103&amp;A103&amp;C103&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B104" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" t="e">
+        <f>B104&amp;C104&amp;A104&amp;C104&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="e">
+        <f>#REF!&amp;#REF!&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B105" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" t="e">
+        <f>B105&amp;C105&amp;A105&amp;C105&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB38FBD-6D54-42E9-B64C-642ED67B0D62}">
   <dimension ref="A1:F87"/>
   <sheetViews>
@@ -3596,11 +6261,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C023A0-310D-4C03-B9C1-5A8813EA1064}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B77" sqref="B77:D87"/>
     </sheetView>
   </sheetViews>
@@ -4962,7 +7627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC6FF50-D4AE-4C8B-B061-17E06AEAF200}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -5180,7 +7845,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="str">
-        <f t="shared" ref="D3:D12" si="1">C12&amp;B12</f>
+        <f t="shared" ref="D12" si="1">C12&amp;B12</f>
         <v/>
       </c>
     </row>
@@ -5364,11 +8029,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6681E9FF-D2F0-46B2-BC01-5CAEB3BA1999}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27:D41"/>
     </sheetView>
   </sheetViews>
@@ -5670,7 +8335,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D23" t="str">
-        <f t="shared" ref="D3:D23" si="1">C23&amp;B23</f>
+        <f t="shared" ref="D23" si="1">C23&amp;B23</f>
         <v/>
       </c>
     </row>
@@ -5990,11 +8655,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E7A3A8-0FA4-4111-BDCB-7F397A8B3B46}">
   <dimension ref="A1:F219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -8189,11 +10854,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF46EFB-EADE-496F-A0EF-594AA4D63C0D}">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D67" sqref="D67:D125"/>
     </sheetView>
   </sheetViews>
@@ -11000,7 +13665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B067CC-0ABB-4602-A9BB-0C5E8C5F6720}">
   <dimension ref="A1:F71"/>
   <sheetViews>
@@ -12197,11 +14862,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72499B5B-0CE7-4DAE-BCC5-211CB9F87BA9}">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>

--- a/ExperimentalAnalysis/EditedScripts/RenamingFiles.xlsx
+++ b/ExperimentalAnalysis/EditedScripts/RenamingFiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MixedRealityDevelopment\CV4Holo\Hololens2ArUcoDetection\ExperimentalAnalysis\EditedScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0A74D3-6257-45E6-84B9-0912895DA066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A136145-5A82-4102-9CDC-08AB231354A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{763FAA15-993B-4228-A9F9-973AF70F6863}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{763FAA15-993B-4228-A9F9-973AF70F6863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (9)" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="563">
   <si>
     <t>Old names</t>
   </si>
@@ -1589,238 +1589,148 @@
     <t>2_medium_trial2v3_9_POLGroundTruth.csv.csv</t>
   </si>
   <si>
-    <t>5_fast_10_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_10_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_11_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_11_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_12_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_12_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_13_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_13_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_14_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_14_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_15_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_15_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_16_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_16_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_17_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_17_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_18_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_18_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_19_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_19_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_1_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_1_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_20_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_20_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_2_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_2_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_3_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_3_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_4_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_4_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_5_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_6_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_6_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_7_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_7_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_8_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_8_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_fast_9_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_fast_9_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_10_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_10_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_11_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_11_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_12_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_12_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_13_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_13_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_14_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_14_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_15_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_15_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_16_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_16_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_17_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_17_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_18_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_18_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_19_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_19_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_1_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_1_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_20_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_20_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_2_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_2_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_3_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_3_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_4_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_4_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_5_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_6_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_6_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_7_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_7_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_8_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_8_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>5_medium_9_HoloData.csv</t>
-  </si>
-  <si>
-    <t>5_medium_9_POLGroundTruth.csv</t>
+    <t>10_slow_10_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_10_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_slow_11_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_11_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_slow_12_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_12_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_slow_1_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_1_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_slow_2_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_2_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_slow_3_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_3_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_slow_4_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_4_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_slow_5_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_5_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_slow_6_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_6_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_slow_7_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_7_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_slow_8_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_8_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_slow_9_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_slow_9_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_10_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_10_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_11_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_11_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_12_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_12_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_1_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_1_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_2_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_2_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_3_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_3_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_4_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_4_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_5_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_5_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_6_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_6_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_7_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_7_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_8_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_8_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_9_HoloData.csv</t>
+  </si>
+  <si>
+    <t>10_fastv2_9_POLGroundTruth.csv</t>
   </si>
 </sst>
 </file>
@@ -2183,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68179A7-9D9F-4160-91BE-1E7E5211F7EB}">
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:D83"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2223,18 +2133,18 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="D2" t="str">
         <f>C2</f>
-        <v>5_medium_10_HoloData.csv</v>
+        <v>10_fastv2_10_HoloData.csv</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="str">
         <f>E2&amp;D2&amp;E2</f>
-        <v>"5_medium_10_HoloData.csv"</v>
+        <v>"10_fastv2_10_HoloData.csv"</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2245,18 +2155,18 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D40" si="0">C3</f>
-        <v>5_medium_10_POLGroundTruth.csv</v>
+        <v>10_fastv2_10_POLGroundTruth.csv</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F40" si="1">E3&amp;D3&amp;E3</f>
-        <v>"5_medium_10_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_10_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2267,18 +2177,18 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_11_HoloData.csv</v>
+        <v>10_fastv2_11_HoloData.csv</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_11_HoloData.csv"</v>
+        <v>"10_fastv2_11_HoloData.csv"</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2289,18 +2199,18 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_11_POLGroundTruth.csv</v>
+        <v>10_fastv2_11_POLGroundTruth.csv</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_11_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_11_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2311,18 +2221,18 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_12_HoloData.csv</v>
+        <v>10_fastv2_12_HoloData.csv</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_12_HoloData.csv"</v>
+        <v>"10_fastv2_12_HoloData.csv"</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2333,18 +2243,18 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_12_POLGroundTruth.csv</v>
+        <v>10_fastv2_12_POLGroundTruth.csv</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_12_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_12_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2355,18 +2265,18 @@
         <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_13_HoloData.csv</v>
+        <v>10_fastv2_1_HoloData.csv</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_13_HoloData.csv"</v>
+        <v>"10_fastv2_1_HoloData.csv"</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2377,18 +2287,18 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_13_POLGroundTruth.csv</v>
+        <v>10_fastv2_1_POLGroundTruth.csv</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_13_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_1_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2399,18 +2309,18 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_14_HoloData.csv</v>
+        <v>10_fastv2_2_HoloData.csv</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_14_HoloData.csv"</v>
+        <v>"10_fastv2_2_HoloData.csv"</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2421,18 +2331,18 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_14_POLGroundTruth.csv</v>
+        <v>10_fastv2_2_POLGroundTruth.csv</v>
       </c>
       <c r="E11" t="s">
         <v>90</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_14_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_2_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2443,18 +2353,18 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_15_HoloData.csv</v>
+        <v>10_fastv2_3_HoloData.csv</v>
       </c>
       <c r="E12" t="s">
         <v>90</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_15_HoloData.csv"</v>
+        <v>"10_fastv2_3_HoloData.csv"</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2465,18 +2375,18 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_15_POLGroundTruth.csv</v>
+        <v>10_fastv2_3_POLGroundTruth.csv</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_15_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_3_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2487,18 +2397,18 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_16_HoloData.csv</v>
+        <v>10_fastv2_4_HoloData.csv</v>
       </c>
       <c r="E14" t="s">
         <v>90</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_16_HoloData.csv"</v>
+        <v>"10_fastv2_4_HoloData.csv"</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2509,18 +2419,18 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_16_POLGroundTruth.csv</v>
+        <v>10_fastv2_4_POLGroundTruth.csv</v>
       </c>
       <c r="E15" t="s">
         <v>90</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_16_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_4_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2531,18 +2441,18 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_17_HoloData.csv</v>
+        <v>10_fastv2_5_HoloData.csv</v>
       </c>
       <c r="E16" t="s">
         <v>90</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_17_HoloData.csv"</v>
+        <v>"10_fastv2_5_HoloData.csv"</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2553,18 +2463,18 @@
         <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_17_POLGroundTruth.csv</v>
+        <v>10_fastv2_5_POLGroundTruth.csv</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_17_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_5_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2575,18 +2485,18 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_18_HoloData.csv</v>
+        <v>10_fastv2_6_HoloData.csv</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_18_HoloData.csv"</v>
+        <v>"10_fastv2_6_HoloData.csv"</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2597,18 +2507,18 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_18_POLGroundTruth.csv</v>
+        <v>10_fastv2_6_POLGroundTruth.csv</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_18_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_6_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2619,18 +2529,18 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_19_HoloData.csv</v>
+        <v>10_fastv2_7_HoloData.csv</v>
       </c>
       <c r="E20" t="s">
         <v>90</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_19_HoloData.csv"</v>
+        <v>"10_fastv2_7_HoloData.csv"</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2641,18 +2551,18 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_19_POLGroundTruth.csv</v>
+        <v>10_fastv2_7_POLGroundTruth.csv</v>
       </c>
       <c r="E21" t="s">
         <v>90</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_19_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_7_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2663,18 +2573,18 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_1_HoloData.csv</v>
+        <v>10_fastv2_8_HoloData.csv</v>
       </c>
       <c r="E22" t="s">
         <v>90</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_1_HoloData.csv"</v>
+        <v>"10_fastv2_8_HoloData.csv"</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2685,18 +2595,18 @@
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_1_POLGroundTruth.csv</v>
+        <v>10_fastv2_8_POLGroundTruth.csv</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_1_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_8_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2707,18 +2617,18 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_20_HoloData.csv</v>
+        <v>10_fastv2_9_HoloData.csv</v>
       </c>
       <c r="E24" t="s">
         <v>90</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_20_HoloData.csv"</v>
+        <v>"10_fastv2_9_HoloData.csv"</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2729,348 +2639,213 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>5_medium_20_POLGroundTruth.csv</v>
+        <v>10_fastv2_9_POLGroundTruth.csv</v>
       </c>
       <c r="E25" t="s">
         <v>90</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_20_POLGroundTruth.csv"</v>
+        <v>"10_fastv2_9_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>539</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>578</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_2_HoloData.csv</v>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>90</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_2_HoloData.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>540</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>579</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_2_POLGroundTruth.csv</v>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>90</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_2_POLGroundTruth.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>541</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>580</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_3_HoloData.csv</v>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>90</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_3_HoloData.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>542</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>581</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_3_POLGroundTruth.csv</v>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>90</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_3_POLGroundTruth.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>543</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>582</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_4_HoloData.csv</v>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>90</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_4_HoloData.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>583</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_4_POLGroundTruth.csv</v>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_4_POLGroundTruth.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>545</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>584</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_5_HoloData.csv</v>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>90</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_5_HoloData.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>546</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>585</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_6_HoloData.csv</v>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>90</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_6_HoloData.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>547</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>586</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_6_POLGroundTruth.csv</v>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>90</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_6_POLGroundTruth.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>548</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>587</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_7_HoloData.csv</v>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>90</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_7_HoloData.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>549</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>588</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_7_POLGroundTruth.csv</v>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E36" t="s">
         <v>90</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_7_POLGroundTruth.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>550</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>589</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_8_HoloData.csv</v>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>90</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_8_HoloData.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>551</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>590</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_8_POLGroundTruth.csv</v>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>90</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_8_POLGroundTruth.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>552</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>591</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_9_HoloData.csv</v>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
         <v>90</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_9_HoloData.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>553</v>
-      </c>
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>592</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>5_medium_9_POLGroundTruth.csv</v>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>90</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>"5_medium_9_POLGroundTruth.csv"</v>
+        <v>"0"</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3089,8 +2864,8 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f>E2&amp;A2&amp;E2</f>
-        <v>"5_fast_10_HoloData.csv"</v>
+        <f t="shared" ref="A45:A83" si="2">E2&amp;A2&amp;E2</f>
+        <v>"10_slow_10_HoloData.csv"</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -3099,14 +2874,14 @@
         <v>95</v>
       </c>
       <c r="D45" t="str">
-        <f>B45&amp;C45&amp;A45&amp;C45&amp;F2</f>
-        <v>ren "5_fast_10_HoloData.csv" "5_medium_10_HoloData.csv"</v>
+        <f t="shared" ref="D45:D83" si="3">B45&amp;C45&amp;A45&amp;C45&amp;F2</f>
+        <v>ren "10_slow_10_HoloData.csv" "10_fastv2_10_HoloData.csv"</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f>E3&amp;A3&amp;E3</f>
-        <v>"5_fast_10_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_10_POLGroundTruth.csv"</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
@@ -3115,14 +2890,14 @@
         <v>95</v>
       </c>
       <c r="D46" t="str">
-        <f>B46&amp;C46&amp;A46&amp;C46&amp;F3</f>
-        <v>ren "5_fast_10_POLGroundTruth.csv" "5_medium_10_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_10_POLGroundTruth.csv" "10_fastv2_10_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f>E4&amp;A4&amp;E4</f>
-        <v>"5_fast_11_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_11_HoloData.csv"</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -3131,14 +2906,14 @@
         <v>95</v>
       </c>
       <c r="D47" t="str">
-        <f>B47&amp;C47&amp;A47&amp;C47&amp;F4</f>
-        <v>ren "5_fast_11_HoloData.csv" "5_medium_11_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_11_HoloData.csv" "10_fastv2_11_HoloData.csv"</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f>E5&amp;A5&amp;E5</f>
-        <v>"5_fast_11_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_11_POLGroundTruth.csv"</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -3147,14 +2922,14 @@
         <v>95</v>
       </c>
       <c r="D48" t="str">
-        <f>B48&amp;C48&amp;A48&amp;C48&amp;F5</f>
-        <v>ren "5_fast_11_POLGroundTruth.csv" "5_medium_11_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_11_POLGroundTruth.csv" "10_fastv2_11_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f>E6&amp;A6&amp;E6</f>
-        <v>"5_fast_12_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_12_HoloData.csv"</v>
       </c>
       <c r="B49" t="s">
         <v>93</v>
@@ -3163,14 +2938,14 @@
         <v>95</v>
       </c>
       <c r="D49" t="str">
-        <f>B49&amp;C49&amp;A49&amp;C49&amp;F6</f>
-        <v>ren "5_fast_12_HoloData.csv" "5_medium_12_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_12_HoloData.csv" "10_fastv2_12_HoloData.csv"</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f>E7&amp;A7&amp;E7</f>
-        <v>"5_fast_12_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_12_POLGroundTruth.csv"</v>
       </c>
       <c r="B50" t="s">
         <v>93</v>
@@ -3179,14 +2954,14 @@
         <v>95</v>
       </c>
       <c r="D50" t="str">
-        <f>B50&amp;C50&amp;A50&amp;C50&amp;F7</f>
-        <v>ren "5_fast_12_POLGroundTruth.csv" "5_medium_12_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_12_POLGroundTruth.csv" "10_fastv2_12_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f>E8&amp;A8&amp;E8</f>
-        <v>"5_fast_13_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_1_HoloData.csv"</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -3195,14 +2970,14 @@
         <v>95</v>
       </c>
       <c r="D51" t="str">
-        <f>B51&amp;C51&amp;A51&amp;C51&amp;F8</f>
-        <v>ren "5_fast_13_HoloData.csv" "5_medium_13_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_1_HoloData.csv" "10_fastv2_1_HoloData.csv"</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f>E9&amp;A9&amp;E9</f>
-        <v>"5_fast_13_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_1_POLGroundTruth.csv"</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -3211,14 +2986,14 @@
         <v>95</v>
       </c>
       <c r="D52" t="str">
-        <f>B52&amp;C52&amp;A52&amp;C52&amp;F9</f>
-        <v>ren "5_fast_13_POLGroundTruth.csv" "5_medium_13_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_1_POLGroundTruth.csv" "10_fastv2_1_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f>E10&amp;A10&amp;E10</f>
-        <v>"5_fast_14_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_2_HoloData.csv"</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -3227,14 +3002,14 @@
         <v>95</v>
       </c>
       <c r="D53" t="str">
-        <f>B53&amp;C53&amp;A53&amp;C53&amp;F10</f>
-        <v>ren "5_fast_14_HoloData.csv" "5_medium_14_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_2_HoloData.csv" "10_fastv2_2_HoloData.csv"</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f>E11&amp;A11&amp;E11</f>
-        <v>"5_fast_14_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_2_POLGroundTruth.csv"</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
@@ -3243,14 +3018,14 @@
         <v>95</v>
       </c>
       <c r="D54" t="str">
-        <f>B54&amp;C54&amp;A54&amp;C54&amp;F11</f>
-        <v>ren "5_fast_14_POLGroundTruth.csv" "5_medium_14_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_2_POLGroundTruth.csv" "10_fastv2_2_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f>E12&amp;A12&amp;E12</f>
-        <v>"5_fast_15_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_3_HoloData.csv"</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -3259,14 +3034,14 @@
         <v>95</v>
       </c>
       <c r="D55" t="str">
-        <f>B55&amp;C55&amp;A55&amp;C55&amp;F12</f>
-        <v>ren "5_fast_15_HoloData.csv" "5_medium_15_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_3_HoloData.csv" "10_fastv2_3_HoloData.csv"</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f>E13&amp;A13&amp;E13</f>
-        <v>"5_fast_15_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_3_POLGroundTruth.csv"</v>
       </c>
       <c r="B56" t="s">
         <v>93</v>
@@ -3275,14 +3050,14 @@
         <v>95</v>
       </c>
       <c r="D56" t="str">
-        <f>B56&amp;C56&amp;A56&amp;C56&amp;F13</f>
-        <v>ren "5_fast_15_POLGroundTruth.csv" "5_medium_15_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_3_POLGroundTruth.csv" "10_fastv2_3_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f>E14&amp;A14&amp;E14</f>
-        <v>"5_fast_16_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_4_HoloData.csv"</v>
       </c>
       <c r="B57" t="s">
         <v>93</v>
@@ -3291,14 +3066,14 @@
         <v>95</v>
       </c>
       <c r="D57" t="str">
-        <f>B57&amp;C57&amp;A57&amp;C57&amp;F14</f>
-        <v>ren "5_fast_16_HoloData.csv" "5_medium_16_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_4_HoloData.csv" "10_fastv2_4_HoloData.csv"</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f>E15&amp;A15&amp;E15</f>
-        <v>"5_fast_16_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_4_POLGroundTruth.csv"</v>
       </c>
       <c r="B58" t="s">
         <v>93</v>
@@ -3307,14 +3082,14 @@
         <v>95</v>
       </c>
       <c r="D58" t="str">
-        <f>B58&amp;C58&amp;A58&amp;C58&amp;F15</f>
-        <v>ren "5_fast_16_POLGroundTruth.csv" "5_medium_16_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_4_POLGroundTruth.csv" "10_fastv2_4_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f>E16&amp;A16&amp;E16</f>
-        <v>"5_fast_17_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_5_HoloData.csv"</v>
       </c>
       <c r="B59" t="s">
         <v>93</v>
@@ -3323,14 +3098,14 @@
         <v>95</v>
       </c>
       <c r="D59" t="str">
-        <f>B59&amp;C59&amp;A59&amp;C59&amp;F16</f>
-        <v>ren "5_fast_17_HoloData.csv" "5_medium_17_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_5_HoloData.csv" "10_fastv2_5_HoloData.csv"</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f>E17&amp;A17&amp;E17</f>
-        <v>"5_fast_17_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_5_POLGroundTruth.csv"</v>
       </c>
       <c r="B60" t="s">
         <v>93</v>
@@ -3339,14 +3114,14 @@
         <v>95</v>
       </c>
       <c r="D60" t="str">
-        <f>B60&amp;C60&amp;A60&amp;C60&amp;F17</f>
-        <v>ren "5_fast_17_POLGroundTruth.csv" "5_medium_17_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_5_POLGroundTruth.csv" "10_fastv2_5_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f>E18&amp;A18&amp;E18</f>
-        <v>"5_fast_18_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_6_HoloData.csv"</v>
       </c>
       <c r="B61" t="s">
         <v>93</v>
@@ -3355,14 +3130,14 @@
         <v>95</v>
       </c>
       <c r="D61" t="str">
-        <f>B61&amp;C61&amp;A61&amp;C61&amp;F18</f>
-        <v>ren "5_fast_18_HoloData.csv" "5_medium_18_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_6_HoloData.csv" "10_fastv2_6_HoloData.csv"</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f>E19&amp;A19&amp;E19</f>
-        <v>"5_fast_18_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_6_POLGroundTruth.csv"</v>
       </c>
       <c r="B62" t="s">
         <v>93</v>
@@ -3371,14 +3146,14 @@
         <v>95</v>
       </c>
       <c r="D62" t="str">
-        <f>B62&amp;C62&amp;A62&amp;C62&amp;F19</f>
-        <v>ren "5_fast_18_POLGroundTruth.csv" "5_medium_18_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_6_POLGroundTruth.csv" "10_fastv2_6_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f>E20&amp;A20&amp;E20</f>
-        <v>"5_fast_19_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_7_HoloData.csv"</v>
       </c>
       <c r="B63" t="s">
         <v>93</v>
@@ -3387,14 +3162,14 @@
         <v>95</v>
       </c>
       <c r="D63" t="str">
-        <f>B63&amp;C63&amp;A63&amp;C63&amp;F20</f>
-        <v>ren "5_fast_19_HoloData.csv" "5_medium_19_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_7_HoloData.csv" "10_fastv2_7_HoloData.csv"</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f>E21&amp;A21&amp;E21</f>
-        <v>"5_fast_19_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_7_POLGroundTruth.csv"</v>
       </c>
       <c r="B64" t="s">
         <v>93</v>
@@ -3403,14 +3178,14 @@
         <v>95</v>
       </c>
       <c r="D64" t="str">
-        <f>B64&amp;C64&amp;A64&amp;C64&amp;F21</f>
-        <v>ren "5_fast_19_POLGroundTruth.csv" "5_medium_19_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_7_POLGroundTruth.csv" "10_fastv2_7_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f>E22&amp;A22&amp;E22</f>
-        <v>"5_fast_1_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_8_HoloData.csv"</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
@@ -3419,14 +3194,14 @@
         <v>95</v>
       </c>
       <c r="D65" t="str">
-        <f>B65&amp;C65&amp;A65&amp;C65&amp;F22</f>
-        <v>ren "5_fast_1_HoloData.csv" "5_medium_1_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_8_HoloData.csv" "10_fastv2_8_HoloData.csv"</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f>E23&amp;A23&amp;E23</f>
-        <v>"5_fast_1_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_8_POLGroundTruth.csv"</v>
       </c>
       <c r="B66" t="s">
         <v>93</v>
@@ -3435,14 +3210,14 @@
         <v>95</v>
       </c>
       <c r="D66" t="str">
-        <f>B66&amp;C66&amp;A66&amp;C66&amp;F23</f>
-        <v>ren "5_fast_1_POLGroundTruth.csv" "5_medium_1_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_8_POLGroundTruth.csv" "10_fastv2_8_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f>E24&amp;A24&amp;E24</f>
-        <v>"5_fast_20_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_9_HoloData.csv"</v>
       </c>
       <c r="B67" t="s">
         <v>93</v>
@@ -3451,14 +3226,14 @@
         <v>95</v>
       </c>
       <c r="D67" t="str">
-        <f>B67&amp;C67&amp;A67&amp;C67&amp;F24</f>
-        <v>ren "5_fast_20_HoloData.csv" "5_medium_20_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_9_HoloData.csv" "10_fastv2_9_HoloData.csv"</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <f>E25&amp;A25&amp;E25</f>
-        <v>"5_fast_20_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>"10_slow_9_POLGroundTruth.csv"</v>
       </c>
       <c r="B68" t="s">
         <v>93</v>
@@ -3467,14 +3242,14 @@
         <v>95</v>
       </c>
       <c r="D68" t="str">
-        <f>B68&amp;C68&amp;A68&amp;C68&amp;F25</f>
-        <v>ren "5_fast_20_POLGroundTruth.csv" "5_medium_20_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "10_slow_9_POLGroundTruth.csv" "10_fastv2_9_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <f>E26&amp;A26&amp;E26</f>
-        <v>"5_fast_2_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B69" t="s">
         <v>93</v>
@@ -3483,14 +3258,14 @@
         <v>95</v>
       </c>
       <c r="D69" t="str">
-        <f>B69&amp;C69&amp;A69&amp;C69&amp;F26</f>
-        <v>ren "5_fast_2_HoloData.csv" "5_medium_2_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
-        <f>E27&amp;A27&amp;E27</f>
-        <v>"5_fast_2_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B70" t="s">
         <v>93</v>
@@ -3499,14 +3274,14 @@
         <v>95</v>
       </c>
       <c r="D70" t="str">
-        <f>B70&amp;C70&amp;A70&amp;C70&amp;F27</f>
-        <v>ren "5_fast_2_POLGroundTruth.csv" "5_medium_2_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
-        <f>E28&amp;A28&amp;E28</f>
-        <v>"5_fast_3_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B71" t="s">
         <v>93</v>
@@ -3515,14 +3290,14 @@
         <v>95</v>
       </c>
       <c r="D71" t="str">
-        <f>B71&amp;C71&amp;A71&amp;C71&amp;F28</f>
-        <v>ren "5_fast_3_HoloData.csv" "5_medium_3_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
-        <f>E29&amp;A29&amp;E29</f>
-        <v>"5_fast_3_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B72" t="s">
         <v>93</v>
@@ -3531,14 +3306,14 @@
         <v>95</v>
       </c>
       <c r="D72" t="str">
-        <f>B72&amp;C72&amp;A72&amp;C72&amp;F29</f>
-        <v>ren "5_fast_3_POLGroundTruth.csv" "5_medium_3_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f>E30&amp;A30&amp;E30</f>
-        <v>"5_fast_4_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B73" t="s">
         <v>93</v>
@@ -3547,14 +3322,14 @@
         <v>95</v>
       </c>
       <c r="D73" t="str">
-        <f>B73&amp;C73&amp;A73&amp;C73&amp;F30</f>
-        <v>ren "5_fast_4_HoloData.csv" "5_medium_4_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
-        <f>E31&amp;A31&amp;E31</f>
-        <v>"5_fast_4_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B74" t="s">
         <v>93</v>
@@ -3563,14 +3338,14 @@
         <v>95</v>
       </c>
       <c r="D74" t="str">
-        <f>B74&amp;C74&amp;A74&amp;C74&amp;F31</f>
-        <v>ren "5_fast_4_POLGroundTruth.csv" "5_medium_4_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f>E32&amp;A32&amp;E32</f>
-        <v>"5_fast_5_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B75" t="s">
         <v>93</v>
@@ -3579,14 +3354,14 @@
         <v>95</v>
       </c>
       <c r="D75" t="str">
-        <f>B75&amp;C75&amp;A75&amp;C75&amp;F32</f>
-        <v>ren "5_fast_5_HoloData.csv" "5_medium_5_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f>E33&amp;A33&amp;E33</f>
-        <v>"5_fast_6_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B76" t="s">
         <v>93</v>
@@ -3595,14 +3370,14 @@
         <v>95</v>
       </c>
       <c r="D76" t="str">
-        <f>B76&amp;C76&amp;A76&amp;C76&amp;F33</f>
-        <v>ren "5_fast_6_HoloData.csv" "5_medium_6_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
-        <f>E34&amp;A34&amp;E34</f>
-        <v>"5_fast_6_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B77" t="s">
         <v>93</v>
@@ -3611,14 +3386,14 @@
         <v>95</v>
       </c>
       <c r="D77" t="str">
-        <f>B77&amp;C77&amp;A77&amp;C77&amp;F34</f>
-        <v>ren "5_fast_6_POLGroundTruth.csv" "5_medium_6_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
-        <f>E35&amp;A35&amp;E35</f>
-        <v>"5_fast_7_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B78" t="s">
         <v>93</v>
@@ -3627,14 +3402,14 @@
         <v>95</v>
       </c>
       <c r="D78" t="str">
-        <f>B78&amp;C78&amp;A78&amp;C78&amp;F35</f>
-        <v>ren "5_fast_7_HoloData.csv" "5_medium_7_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
-        <f>E36&amp;A36&amp;E36</f>
-        <v>"5_fast_7_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B79" t="s">
         <v>93</v>
@@ -3643,14 +3418,14 @@
         <v>95</v>
       </c>
       <c r="D79" t="str">
-        <f>B79&amp;C79&amp;A79&amp;C79&amp;F36</f>
-        <v>ren "5_fast_7_POLGroundTruth.csv" "5_medium_7_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
-        <f>E37&amp;A37&amp;E37</f>
-        <v>"5_fast_8_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B80" t="s">
         <v>93</v>
@@ -3659,14 +3434,14 @@
         <v>95</v>
       </c>
       <c r="D80" t="str">
-        <f>B80&amp;C80&amp;A80&amp;C80&amp;F37</f>
-        <v>ren "5_fast_8_HoloData.csv" "5_medium_8_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f>E38&amp;A38&amp;E38</f>
-        <v>"5_fast_8_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B81" t="s">
         <v>93</v>
@@ -3675,14 +3450,14 @@
         <v>95</v>
       </c>
       <c r="D81" t="str">
-        <f>B81&amp;C81&amp;A81&amp;C81&amp;F38</f>
-        <v>ren "5_fast_8_POLGroundTruth.csv" "5_medium_8_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
-        <f>E39&amp;A39&amp;E39</f>
-        <v>"5_fast_9_HoloData.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B82" t="s">
         <v>93</v>
@@ -3691,14 +3466,14 @@
         <v>95</v>
       </c>
       <c r="D82" t="str">
-        <f>B82&amp;C82&amp;A82&amp;C82&amp;F39</f>
-        <v>ren "5_fast_9_HoloData.csv" "5_medium_9_HoloData.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f>E40&amp;A40&amp;E40</f>
-        <v>"5_fast_9_POLGroundTruth.csv"</v>
+        <f t="shared" si="2"/>
+        <v>""</v>
       </c>
       <c r="B83" t="s">
         <v>93</v>
@@ -3707,8 +3482,8 @@
         <v>95</v>
       </c>
       <c r="D83" t="str">
-        <f>B83&amp;C83&amp;A83&amp;C83&amp;F40</f>
-        <v>ren "5_fast_9_POLGroundTruth.csv" "5_medium_9_POLGroundTruth.csv"</v>
+        <f t="shared" si="3"/>
+        <v>ren "" "0"</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">

--- a/ExperimentalAnalysis/EditedScripts/RenamingFiles.xlsx
+++ b/ExperimentalAnalysis/EditedScripts/RenamingFiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MixedRealityDevelopment\CV4Holo\Hololens2ArUcoDetection\ExperimentalAnalysis\EditedScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A136145-5A82-4102-9CDC-08AB231354A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DBEC9F-2280-4DC4-A90F-4E837FA30EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{763FAA15-993B-4228-A9F9-973AF70F6863}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{763FAA15-993B-4228-A9F9-973AF70F6863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (9)" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="583">
   <si>
     <t>Old names</t>
   </si>
@@ -1589,148 +1589,208 @@
     <t>2_medium_trial2v3_9_POLGroundTruth.csv.csv</t>
   </si>
   <si>
-    <t>10_slow_10_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_10_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_slow_11_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_11_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_slow_12_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_12_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_slow_1_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_1_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_slow_2_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_2_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_slow_3_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_3_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_slow_4_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_4_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_slow_5_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_5_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_slow_6_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_6_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_slow_7_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_7_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_slow_8_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_8_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_slow_9_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_slow_9_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_10_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_10_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_11_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_11_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_12_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_12_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_1_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_1_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_2_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_2_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_3_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_3_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_4_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_4_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_5_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_5_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_6_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_6_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_7_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_7_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_8_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_8_POLGroundTruth.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_9_HoloData.csv</t>
-  </si>
-  <si>
-    <t>10_fastv2_9_POLGroundTruth.csv</t>
+    <t>12_slow_10_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_10_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_11_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_11_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_12_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_12_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_13_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_13_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_14_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_14_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_15_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_15_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_16_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_16_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_17_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_17_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_1_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_1_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_2_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_2_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_3_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_3_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_4_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_4_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_5_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_5_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_6_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_6_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_7_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_7_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_8_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_8_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slow_9_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slow_9_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_10_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_10_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_11_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_11_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_12_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_12_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_13_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_13_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_14_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_14_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_15_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_15_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_16_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_16_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_17_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_17_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_1_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_1_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_2_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_2_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_3_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_3_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_4_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_4_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_5_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_5_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_6_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_6_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_7_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_7_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_8_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_8_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_9_HoloData.csv</t>
+  </si>
+  <si>
+    <t>12_slowv2_9_POLGroundTruth.csv</t>
   </si>
 </sst>
 </file>
@@ -2093,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68179A7-9D9F-4160-91BE-1E7E5211F7EB}">
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:D68"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,18 +2193,18 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="D2" t="str">
         <f>C2</f>
-        <v>10_fastv2_10_HoloData.csv</v>
+        <v>12_slowv2_10_HoloData.csv</v>
       </c>
       <c r="E2" t="s">
         <v>90</v>
       </c>
       <c r="F2" t="str">
         <f>E2&amp;D2&amp;E2</f>
-        <v>"10_fastv2_10_HoloData.csv"</v>
+        <v>"12_slowv2_10_HoloData.csv"</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2155,18 +2215,18 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D40" si="0">C3</f>
-        <v>10_fastv2_10_POLGroundTruth.csv</v>
+        <v>12_slowv2_10_POLGroundTruth.csv</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F40" si="1">E3&amp;D3&amp;E3</f>
-        <v>"10_fastv2_10_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_10_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2177,18 +2237,18 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_11_HoloData.csv</v>
+        <v>12_slowv2_11_HoloData.csv</v>
       </c>
       <c r="E4" t="s">
         <v>90</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_11_HoloData.csv"</v>
+        <v>"12_slowv2_11_HoloData.csv"</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2199,18 +2259,18 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_11_POLGroundTruth.csv</v>
+        <v>12_slowv2_11_POLGroundTruth.csv</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_11_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_11_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2221,18 +2281,18 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_12_HoloData.csv</v>
+        <v>12_slowv2_12_HoloData.csv</v>
       </c>
       <c r="E6" t="s">
         <v>90</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_12_HoloData.csv"</v>
+        <v>"12_slowv2_12_HoloData.csv"</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2243,18 +2303,18 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_12_POLGroundTruth.csv</v>
+        <v>12_slowv2_12_POLGroundTruth.csv</v>
       </c>
       <c r="E7" t="s">
         <v>90</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_12_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_12_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2265,18 +2325,18 @@
         <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_1_HoloData.csv</v>
+        <v>12_slowv2_13_HoloData.csv</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_1_HoloData.csv"</v>
+        <v>"12_slowv2_13_HoloData.csv"</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2287,18 +2347,18 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_1_POLGroundTruth.csv</v>
+        <v>12_slowv2_13_POLGroundTruth.csv</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_1_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_13_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2309,18 +2369,18 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_2_HoloData.csv</v>
+        <v>12_slowv2_14_HoloData.csv</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_2_HoloData.csv"</v>
+        <v>"12_slowv2_14_HoloData.csv"</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2331,18 +2391,18 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_2_POLGroundTruth.csv</v>
+        <v>12_slowv2_14_POLGroundTruth.csv</v>
       </c>
       <c r="E11" t="s">
         <v>90</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_2_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_14_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2353,18 +2413,18 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_3_HoloData.csv</v>
+        <v>12_slowv2_15_HoloData.csv</v>
       </c>
       <c r="E12" t="s">
         <v>90</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_3_HoloData.csv"</v>
+        <v>"12_slowv2_15_HoloData.csv"</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2375,18 +2435,18 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_3_POLGroundTruth.csv</v>
+        <v>12_slowv2_15_POLGroundTruth.csv</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_3_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_15_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2397,18 +2457,18 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_4_HoloData.csv</v>
+        <v>12_slowv2_16_HoloData.csv</v>
       </c>
       <c r="E14" t="s">
         <v>90</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_4_HoloData.csv"</v>
+        <v>"12_slowv2_16_HoloData.csv"</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2419,18 +2479,18 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_4_POLGroundTruth.csv</v>
+        <v>12_slowv2_16_POLGroundTruth.csv</v>
       </c>
       <c r="E15" t="s">
         <v>90</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_4_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_16_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2441,18 +2501,18 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_5_HoloData.csv</v>
+        <v>12_slowv2_17_HoloData.csv</v>
       </c>
       <c r="E16" t="s">
         <v>90</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_5_HoloData.csv"</v>
+        <v>"12_slowv2_17_HoloData.csv"</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2463,18 +2523,18 @@
         <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_5_POLGroundTruth.csv</v>
+        <v>12_slowv2_17_POLGroundTruth.csv</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_5_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_17_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2485,18 +2545,18 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_6_HoloData.csv</v>
+        <v>12_slowv2_1_HoloData.csv</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_6_HoloData.csv"</v>
+        <v>"12_slowv2_1_HoloData.csv"</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2507,18 +2567,18 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_6_POLGroundTruth.csv</v>
+        <v>12_slowv2_1_POLGroundTruth.csv</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_6_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_1_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2529,18 +2589,18 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_7_HoloData.csv</v>
+        <v>12_slowv2_2_HoloData.csv</v>
       </c>
       <c r="E20" t="s">
         <v>90</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_7_HoloData.csv"</v>
+        <v>"12_slowv2_2_HoloData.csv"</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2551,18 +2611,18 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_7_POLGroundTruth.csv</v>
+        <v>12_slowv2_2_POLGroundTruth.csv</v>
       </c>
       <c r="E21" t="s">
         <v>90</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_7_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_2_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2573,18 +2633,18 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_8_HoloData.csv</v>
+        <v>12_slowv2_3_HoloData.csv</v>
       </c>
       <c r="E22" t="s">
         <v>90</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_8_HoloData.csv"</v>
+        <v>"12_slowv2_3_HoloData.csv"</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2595,18 +2655,18 @@
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_8_POLGroundTruth.csv</v>
+        <v>12_slowv2_3_POLGroundTruth.csv</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_8_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_3_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2617,18 +2677,18 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_9_HoloData.csv</v>
+        <v>12_slowv2_4_HoloData.csv</v>
       </c>
       <c r="E24" t="s">
         <v>90</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_9_HoloData.csv"</v>
+        <v>"12_slowv2_4_HoloData.csv"</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2639,148 +2699,208 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>10_fastv2_9_POLGroundTruth.csv</v>
+        <v>12_slowv2_4_POLGroundTruth.csv</v>
       </c>
       <c r="E25" t="s">
         <v>90</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>"10_fastv2_9_POLGroundTruth.csv"</v>
+        <v>"12_slowv2_4_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A26" t="s">
+        <v>539</v>
+      </c>
+      <c r="C26" t="s">
+        <v>573</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>12_slowv2_5_HoloData.csv</v>
       </c>
       <c r="E26" t="s">
         <v>90</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>"0"</v>
+        <v>"12_slowv2_5_HoloData.csv"</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A27" t="s">
+        <v>540</v>
+      </c>
+      <c r="C27" t="s">
+        <v>574</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>12_slowv2_5_POLGroundTruth.csv</v>
       </c>
       <c r="E27" t="s">
         <v>90</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>"0"</v>
+        <v>"12_slowv2_5_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A28" t="s">
+        <v>541</v>
+      </c>
+      <c r="C28" t="s">
+        <v>575</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>12_slowv2_6_HoloData.csv</v>
       </c>
       <c r="E28" t="s">
         <v>90</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>"0"</v>
+        <v>"12_slowv2_6_HoloData.csv"</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A29" t="s">
+        <v>542</v>
+      </c>
+      <c r="C29" t="s">
+        <v>576</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>12_slowv2_6_POLGroundTruth.csv</v>
       </c>
       <c r="E29" t="s">
         <v>90</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>"0"</v>
+        <v>"12_slowv2_6_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A30" t="s">
+        <v>543</v>
+      </c>
+      <c r="C30" t="s">
+        <v>577</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>12_slowv2_7_HoloData.csv</v>
       </c>
       <c r="E30" t="s">
         <v>90</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>"0"</v>
+        <v>"12_slowv2_7_HoloData.csv"</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A31" t="s">
+        <v>544</v>
+      </c>
+      <c r="C31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>12_slowv2_7_POLGroundTruth.csv</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>"0"</v>
+        <v>"12_slowv2_7_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A32" t="s">
+        <v>545</v>
+      </c>
+      <c r="C32" t="s">
+        <v>579</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>12_slowv2_8_HoloData.csv</v>
       </c>
       <c r="E32" t="s">
         <v>90</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>"0"</v>
+        <v>"12_slowv2_8_HoloData.csv"</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A33" t="s">
+        <v>546</v>
+      </c>
+      <c r="C33" t="s">
+        <v>580</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>12_slowv2_8_POLGroundTruth.csv</v>
       </c>
       <c r="E33" t="s">
         <v>90</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>"0"</v>
+        <v>"12_slowv2_8_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A34" t="s">
+        <v>547</v>
+      </c>
+      <c r="C34" t="s">
+        <v>581</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>12_slowv2_9_HoloData.csv</v>
       </c>
       <c r="E34" t="s">
         <v>90</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>"0"</v>
+        <v>"12_slowv2_9_HoloData.csv"</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A35" t="s">
+        <v>548</v>
+      </c>
+      <c r="C35" t="s">
+        <v>582</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>12_slowv2_9_POLGroundTruth.csv</v>
       </c>
       <c r="E35" t="s">
         <v>90</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>"0"</v>
+        <v>"12_slowv2_9_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2865,7 +2985,7 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" ref="A45:A83" si="2">E2&amp;A2&amp;E2</f>
-        <v>"10_slow_10_HoloData.csv"</v>
+        <v>"12_slow_10_HoloData.csv"</v>
       </c>
       <c r="B45" t="s">
         <v>93</v>
@@ -2875,13 +2995,13 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" ref="D45:D83" si="3">B45&amp;C45&amp;A45&amp;C45&amp;F2</f>
-        <v>ren "10_slow_10_HoloData.csv" "10_fastv2_10_HoloData.csv"</v>
+        <v>ren "12_slow_10_HoloData.csv" "12_slowv2_10_HoloData.csv"</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_10_POLGroundTruth.csv"</v>
+        <v>"12_slow_10_POLGroundTruth.csv"</v>
       </c>
       <c r="B46" t="s">
         <v>93</v>
@@ -2891,13 +3011,13 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_10_POLGroundTruth.csv" "10_fastv2_10_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_10_POLGroundTruth.csv" "12_slowv2_10_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_11_HoloData.csv"</v>
+        <v>"12_slow_11_HoloData.csv"</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
@@ -2907,13 +3027,13 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_11_HoloData.csv" "10_fastv2_11_HoloData.csv"</v>
+        <v>ren "12_slow_11_HoloData.csv" "12_slowv2_11_HoloData.csv"</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_11_POLGroundTruth.csv"</v>
+        <v>"12_slow_11_POLGroundTruth.csv"</v>
       </c>
       <c r="B48" t="s">
         <v>93</v>
@@ -2923,13 +3043,13 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_11_POLGroundTruth.csv" "10_fastv2_11_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_11_POLGroundTruth.csv" "12_slowv2_11_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_12_HoloData.csv"</v>
+        <v>"12_slow_12_HoloData.csv"</v>
       </c>
       <c r="B49" t="s">
         <v>93</v>
@@ -2939,13 +3059,13 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_12_HoloData.csv" "10_fastv2_12_HoloData.csv"</v>
+        <v>ren "12_slow_12_HoloData.csv" "12_slowv2_12_HoloData.csv"</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_12_POLGroundTruth.csv"</v>
+        <v>"12_slow_12_POLGroundTruth.csv"</v>
       </c>
       <c r="B50" t="s">
         <v>93</v>
@@ -2955,13 +3075,13 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_12_POLGroundTruth.csv" "10_fastv2_12_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_12_POLGroundTruth.csv" "12_slowv2_12_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_1_HoloData.csv"</v>
+        <v>"12_slow_13_HoloData.csv"</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -2971,13 +3091,13 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_1_HoloData.csv" "10_fastv2_1_HoloData.csv"</v>
+        <v>ren "12_slow_13_HoloData.csv" "12_slowv2_13_HoloData.csv"</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_1_POLGroundTruth.csv"</v>
+        <v>"12_slow_13_POLGroundTruth.csv"</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -2987,13 +3107,13 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_1_POLGroundTruth.csv" "10_fastv2_1_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_13_POLGroundTruth.csv" "12_slowv2_13_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_2_HoloData.csv"</v>
+        <v>"12_slow_14_HoloData.csv"</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
@@ -3003,13 +3123,13 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_2_HoloData.csv" "10_fastv2_2_HoloData.csv"</v>
+        <v>ren "12_slow_14_HoloData.csv" "12_slowv2_14_HoloData.csv"</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_2_POLGroundTruth.csv"</v>
+        <v>"12_slow_14_POLGroundTruth.csv"</v>
       </c>
       <c r="B54" t="s">
         <v>93</v>
@@ -3019,13 +3139,13 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_2_POLGroundTruth.csv" "10_fastv2_2_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_14_POLGroundTruth.csv" "12_slowv2_14_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_3_HoloData.csv"</v>
+        <v>"12_slow_15_HoloData.csv"</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -3035,13 +3155,13 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_3_HoloData.csv" "10_fastv2_3_HoloData.csv"</v>
+        <v>ren "12_slow_15_HoloData.csv" "12_slowv2_15_HoloData.csv"</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_3_POLGroundTruth.csv"</v>
+        <v>"12_slow_15_POLGroundTruth.csv"</v>
       </c>
       <c r="B56" t="s">
         <v>93</v>
@@ -3051,13 +3171,13 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_3_POLGroundTruth.csv" "10_fastv2_3_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_15_POLGroundTruth.csv" "12_slowv2_15_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_4_HoloData.csv"</v>
+        <v>"12_slow_16_HoloData.csv"</v>
       </c>
       <c r="B57" t="s">
         <v>93</v>
@@ -3067,13 +3187,13 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_4_HoloData.csv" "10_fastv2_4_HoloData.csv"</v>
+        <v>ren "12_slow_16_HoloData.csv" "12_slowv2_16_HoloData.csv"</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_4_POLGroundTruth.csv"</v>
+        <v>"12_slow_16_POLGroundTruth.csv"</v>
       </c>
       <c r="B58" t="s">
         <v>93</v>
@@ -3083,13 +3203,13 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_4_POLGroundTruth.csv" "10_fastv2_4_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_16_POLGroundTruth.csv" "12_slowv2_16_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_5_HoloData.csv"</v>
+        <v>"12_slow_17_HoloData.csv"</v>
       </c>
       <c r="B59" t="s">
         <v>93</v>
@@ -3099,13 +3219,13 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_5_HoloData.csv" "10_fastv2_5_HoloData.csv"</v>
+        <v>ren "12_slow_17_HoloData.csv" "12_slowv2_17_HoloData.csv"</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_5_POLGroundTruth.csv"</v>
+        <v>"12_slow_17_POLGroundTruth.csv"</v>
       </c>
       <c r="B60" t="s">
         <v>93</v>
@@ -3115,13 +3235,13 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_5_POLGroundTruth.csv" "10_fastv2_5_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_17_POLGroundTruth.csv" "12_slowv2_17_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_6_HoloData.csv"</v>
+        <v>"12_slow_1_HoloData.csv"</v>
       </c>
       <c r="B61" t="s">
         <v>93</v>
@@ -3131,13 +3251,13 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_6_HoloData.csv" "10_fastv2_6_HoloData.csv"</v>
+        <v>ren "12_slow_1_HoloData.csv" "12_slowv2_1_HoloData.csv"</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_6_POLGroundTruth.csv"</v>
+        <v>"12_slow_1_POLGroundTruth.csv"</v>
       </c>
       <c r="B62" t="s">
         <v>93</v>
@@ -3147,13 +3267,13 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_6_POLGroundTruth.csv" "10_fastv2_6_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_1_POLGroundTruth.csv" "12_slowv2_1_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_7_HoloData.csv"</v>
+        <v>"12_slow_2_HoloData.csv"</v>
       </c>
       <c r="B63" t="s">
         <v>93</v>
@@ -3163,13 +3283,13 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_7_HoloData.csv" "10_fastv2_7_HoloData.csv"</v>
+        <v>ren "12_slow_2_HoloData.csv" "12_slowv2_2_HoloData.csv"</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_7_POLGroundTruth.csv"</v>
+        <v>"12_slow_2_POLGroundTruth.csv"</v>
       </c>
       <c r="B64" t="s">
         <v>93</v>
@@ -3179,13 +3299,13 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_7_POLGroundTruth.csv" "10_fastv2_7_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_2_POLGroundTruth.csv" "12_slowv2_2_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_8_HoloData.csv"</v>
+        <v>"12_slow_3_HoloData.csv"</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
@@ -3195,13 +3315,13 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_8_HoloData.csv" "10_fastv2_8_HoloData.csv"</v>
+        <v>ren "12_slow_3_HoloData.csv" "12_slowv2_3_HoloData.csv"</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_8_POLGroundTruth.csv"</v>
+        <v>"12_slow_3_POLGroundTruth.csv"</v>
       </c>
       <c r="B66" t="s">
         <v>93</v>
@@ -3211,13 +3331,13 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_8_POLGroundTruth.csv" "10_fastv2_8_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_3_POLGroundTruth.csv" "12_slowv2_3_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_9_HoloData.csv"</v>
+        <v>"12_slow_4_HoloData.csv"</v>
       </c>
       <c r="B67" t="s">
         <v>93</v>
@@ -3227,13 +3347,13 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_9_HoloData.csv" "10_fastv2_9_HoloData.csv"</v>
+        <v>ren "12_slow_4_HoloData.csv" "12_slowv2_4_HoloData.csv"</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
-        <v>"10_slow_9_POLGroundTruth.csv"</v>
+        <v>"12_slow_4_POLGroundTruth.csv"</v>
       </c>
       <c r="B68" t="s">
         <v>93</v>
@@ -3243,13 +3363,13 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="3"/>
-        <v>ren "10_slow_9_POLGroundTruth.csv" "10_fastv2_9_POLGroundTruth.csv"</v>
+        <v>ren "12_slow_4_POLGroundTruth.csv" "12_slowv2_4_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
-        <v>""</v>
+        <v>"12_slow_5_HoloData.csv"</v>
       </c>
       <c r="B69" t="s">
         <v>93</v>
@@ -3259,13 +3379,13 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="3"/>
-        <v>ren "" "0"</v>
+        <v>ren "12_slow_5_HoloData.csv" "12_slowv2_5_HoloData.csv"</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
-        <v>""</v>
+        <v>"12_slow_5_POLGroundTruth.csv"</v>
       </c>
       <c r="B70" t="s">
         <v>93</v>
@@ -3275,13 +3395,13 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="3"/>
-        <v>ren "" "0"</v>
+        <v>ren "12_slow_5_POLGroundTruth.csv" "12_slowv2_5_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
-        <v>""</v>
+        <v>"12_slow_6_HoloData.csv"</v>
       </c>
       <c r="B71" t="s">
         <v>93</v>
@@ -3291,13 +3411,13 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="3"/>
-        <v>ren "" "0"</v>
+        <v>ren "12_slow_6_HoloData.csv" "12_slowv2_6_HoloData.csv"</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
-        <v>""</v>
+        <v>"12_slow_6_POLGroundTruth.csv"</v>
       </c>
       <c r="B72" t="s">
         <v>93</v>
@@ -3307,13 +3427,13 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="3"/>
-        <v>ren "" "0"</v>
+        <v>ren "12_slow_6_POLGroundTruth.csv" "12_slowv2_6_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
-        <v>""</v>
+        <v>"12_slow_7_HoloData.csv"</v>
       </c>
       <c r="B73" t="s">
         <v>93</v>
@@ -3323,13 +3443,13 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="3"/>
-        <v>ren "" "0"</v>
+        <v>ren "12_slow_7_HoloData.csv" "12_slowv2_7_HoloData.csv"</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
-        <v>""</v>
+        <v>"12_slow_7_POLGroundTruth.csv"</v>
       </c>
       <c r="B74" t="s">
         <v>93</v>
@@ -3339,13 +3459,13 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="3"/>
-        <v>ren "" "0"</v>
+        <v>ren "12_slow_7_POLGroundTruth.csv" "12_slowv2_7_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
-        <v>""</v>
+        <v>"12_slow_8_HoloData.csv"</v>
       </c>
       <c r="B75" t="s">
         <v>93</v>
@@ -3355,13 +3475,13 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="3"/>
-        <v>ren "" "0"</v>
+        <v>ren "12_slow_8_HoloData.csv" "12_slowv2_8_HoloData.csv"</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
-        <v>""</v>
+        <v>"12_slow_8_POLGroundTruth.csv"</v>
       </c>
       <c r="B76" t="s">
         <v>93</v>
@@ -3371,13 +3491,13 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="3"/>
-        <v>ren "" "0"</v>
+        <v>ren "12_slow_8_POLGroundTruth.csv" "12_slowv2_8_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
-        <v>""</v>
+        <v>"12_slow_9_HoloData.csv"</v>
       </c>
       <c r="B77" t="s">
         <v>93</v>
@@ -3387,13 +3507,13 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="3"/>
-        <v>ren "" "0"</v>
+        <v>ren "12_slow_9_HoloData.csv" "12_slowv2_9_HoloData.csv"</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
-        <v>""</v>
+        <v>"12_slow_9_POLGroundTruth.csv"</v>
       </c>
       <c r="B78" t="s">
         <v>93</v>
@@ -3403,7 +3523,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="3"/>
-        <v>ren "" "0"</v>
+        <v>ren "12_slow_9_POLGroundTruth.csv" "12_slowv2_9_POLGroundTruth.csv"</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">

--- a/ExperimentalAnalysis/EditedScripts/RenamingFiles.xlsx
+++ b/ExperimentalAnalysis/EditedScripts/RenamingFiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MixedRealityDevelopment\CV4Holo\Hololens2ArUcoDetection\ExperimentalAnalysis\EditedScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DBEC9F-2280-4DC4-A90F-4E837FA30EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E9A89D-1E1A-4A5F-9237-041D17D46546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{763FAA15-993B-4228-A9F9-973AF70F6863}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{763FAA15-993B-4228-A9F9-973AF70F6863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (9)" sheetId="11" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet1 (7)" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet1 (5)" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet1 (8)" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1 (10)" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="705">
   <si>
     <t>Old names</t>
   </si>
@@ -1791,6 +1792,372 @@
   </si>
   <si>
     <t>12_slowv2_9_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_10_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_10_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_11_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_11_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_12_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_12_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_13_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_13_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_14_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_14_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_15_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_15_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_16_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_16_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_17_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_17_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_18_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_18_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_19_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_19_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_1_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_1_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_20_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_20_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_21_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_21_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_22_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_22_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_23_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_23_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_24_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_24_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_25_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_25_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_26_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_26_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_27_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_27_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_28_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_28_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_29_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_29_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_2_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_2_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_30_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_30_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_3_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_3_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_4_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_4_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_5_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_5_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_6_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_6_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_7_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_7_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_8_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_8_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_slow_9_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_slow_9_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_test_EMG_data_slow.csv</t>
+  </si>
+  <si>
+    <t>15_medium_10_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_10_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_11_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_11_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_12_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_12_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_13_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_13_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_14_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_14_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_15_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_15_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_16_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_16_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_17_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_17_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_18_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_18_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_19_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_19_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_1_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_1_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_20_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_20_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_21_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_21_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_22_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_22_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_23_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_23_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_24_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_24_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_25_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_25_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_26_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_26_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_27_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_27_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_28_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_28_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_29_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_29_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_2_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_2_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_30_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_30_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_3_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_3_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_4_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_4_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_5_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_5_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_6_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_6_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_7_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_7_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_8_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_8_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_medium_9_HoloData.csv</t>
+  </si>
+  <si>
+    <t>15_medium_9_POLGroundTruth.csv</t>
+  </si>
+  <si>
+    <t>15_test_EMG_data_medium.csv</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68179A7-9D9F-4160-91BE-1E7E5211F7EB}">
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D45" sqref="D45:D78"/>
     </sheetView>
   </sheetViews>
@@ -4495,6 +4862,2920 @@
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF07865-8DBC-4E0D-838D-FC92AC05EDD4}">
+  <dimension ref="A1:F250"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:D142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2" t="str">
+        <f>C2</f>
+        <v>15_medium_10_HoloData.csv</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="str">
+        <f>E2&amp;D2&amp;E2</f>
+        <v>"15_medium_10_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D62" si="0">C3</f>
+        <v>15_medium_10_POLGroundTruth.csv</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F62" si="1">E3&amp;D3&amp;E3</f>
+        <v>"15_medium_10_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_11_HoloData.csv</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_11_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>647</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_11_POLGroundTruth.csv</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_11_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_12_HoloData.csv</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_12_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_12_POLGroundTruth.csv</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_12_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>650</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_13_HoloData.csv</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_13_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>651</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_13_POLGroundTruth.csv</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_13_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>652</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_14_HoloData.csv</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_14_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>653</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_14_POLGroundTruth.csv</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_14_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>593</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>654</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_15_HoloData.csv</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_15_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>655</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_15_POLGroundTruth.csv</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_15_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>656</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_16_HoloData.csv</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_16_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>657</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_16_POLGroundTruth.csv</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_16_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>597</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>658</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_17_HoloData.csv</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_17_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>598</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>659</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_17_POLGroundTruth.csv</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_17_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>599</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>660</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_18_HoloData.csv</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_18_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>600</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>661</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_18_POLGroundTruth.csv</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_18_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>601</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>662</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_19_HoloData.csv</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_19_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>602</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>663</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_19_POLGroundTruth.csv</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_19_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>603</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>664</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_1_HoloData.csv</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_1_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>604</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>665</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_1_POLGroundTruth.csv</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_1_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>605</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>666</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_20_HoloData.csv</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_20_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>606</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>667</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_20_POLGroundTruth.csv</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_20_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>607</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>668</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_21_HoloData.csv</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_21_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>608</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>669</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_21_POLGroundTruth.csv</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_21_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>670</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_22_HoloData.csv</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_22_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>610</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>671</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_22_POLGroundTruth.csv</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_22_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>611</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>672</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_23_HoloData.csv</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_23_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>612</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>673</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_23_POLGroundTruth.csv</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_23_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>613</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>674</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_24_HoloData.csv</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_24_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>614</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>675</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_24_POLGroundTruth.csv</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_24_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>615</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>676</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_25_HoloData.csv</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_25_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>616</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>677</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_25_POLGroundTruth.csv</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_25_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>617</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>678</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_26_HoloData.csv</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_26_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>618</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>679</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_26_POLGroundTruth.csv</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_26_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>619</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>680</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_27_HoloData.csv</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_27_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>620</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>681</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_27_POLGroundTruth.csv</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_27_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>621</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>682</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_28_HoloData.csv</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_28_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>622</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>683</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_28_POLGroundTruth.csv</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_28_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>623</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>684</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_29_HoloData.csv</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_29_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>624</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>685</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_29_POLGroundTruth.csv</v>
+      </c>
+      <c r="E43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_29_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>625</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>686</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_2_HoloData.csv</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_2_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>626</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>687</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_2_POLGroundTruth.csv</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_2_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>627</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>688</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_30_HoloData.csv</v>
+      </c>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_30_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>628</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>689</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_30_POLGroundTruth.csv</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_30_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>629</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>690</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_3_HoloData.csv</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_3_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>630</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>691</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_3_POLGroundTruth.csv</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_3_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>631</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>692</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_4_HoloData.csv</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_4_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>632</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>693</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_4_POLGroundTruth.csv</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_4_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>633</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>694</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_5_HoloData.csv</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_5_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>634</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>695</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_5_POLGroundTruth.csv</v>
+      </c>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_5_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>635</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>696</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_6_HoloData.csv</v>
+      </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_6_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>636</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>697</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_6_POLGroundTruth.csv</v>
+      </c>
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_6_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>637</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>698</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_7_HoloData.csv</v>
+      </c>
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_7_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>638</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>699</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_7_POLGroundTruth.csv</v>
+      </c>
+      <c r="E57" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_7_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>639</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>700</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_8_HoloData.csv</v>
+      </c>
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_8_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>640</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>701</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_8_POLGroundTruth.csv</v>
+      </c>
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_8_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>641</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>702</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_9_HoloData.csv</v>
+      </c>
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_9_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>642</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>703</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>15_medium_9_POLGroundTruth.csv</v>
+      </c>
+      <c r="E61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_medium_9_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>643</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>704</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>15_test_EMG_data_medium.csv</v>
+      </c>
+      <c r="E62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>"15_test_EMG_data_medium.csv"</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <f>E2&amp;A2&amp;E2</f>
+        <v>"15_slow_10_HoloData.csv"</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" t="str">
+        <f>B82&amp;C82&amp;A82&amp;C82&amp;F2</f>
+        <v>ren "15_slow_10_HoloData.csv" "15_medium_10_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <f>E3&amp;A3&amp;E3</f>
+        <v>"15_slow_10_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" t="str">
+        <f>B83&amp;C83&amp;A83&amp;C83&amp;F3</f>
+        <v>ren "15_slow_10_POLGroundTruth.csv" "15_medium_10_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <f>E4&amp;A4&amp;E4</f>
+        <v>"15_slow_11_HoloData.csv"</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" t="str">
+        <f>B84&amp;C84&amp;A84&amp;C84&amp;F4</f>
+        <v>ren "15_slow_11_HoloData.csv" "15_medium_11_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f>E5&amp;A5&amp;E5</f>
+        <v>"15_slow_11_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B85" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" t="str">
+        <f>B85&amp;C85&amp;A85&amp;C85&amp;F5</f>
+        <v>ren "15_slow_11_POLGroundTruth.csv" "15_medium_11_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <f>E6&amp;A6&amp;E6</f>
+        <v>"15_slow_12_HoloData.csv"</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" t="str">
+        <f>B86&amp;C86&amp;A86&amp;C86&amp;F6</f>
+        <v>ren "15_slow_12_HoloData.csv" "15_medium_12_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f>E7&amp;A7&amp;E7</f>
+        <v>"15_slow_12_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" t="str">
+        <f>B87&amp;C87&amp;A87&amp;C87&amp;F7</f>
+        <v>ren "15_slow_12_POLGroundTruth.csv" "15_medium_12_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <f>E8&amp;A8&amp;E8</f>
+        <v>"15_slow_13_HoloData.csv"</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" t="str">
+        <f>B88&amp;C88&amp;A88&amp;C88&amp;F8</f>
+        <v>ren "15_slow_13_HoloData.csv" "15_medium_13_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <f>E9&amp;A9&amp;E9</f>
+        <v>"15_slow_13_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" t="str">
+        <f>B89&amp;C89&amp;A89&amp;C89&amp;F9</f>
+        <v>ren "15_slow_13_POLGroundTruth.csv" "15_medium_13_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
+        <f>E10&amp;A10&amp;E10</f>
+        <v>"15_slow_14_HoloData.csv"</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" t="str">
+        <f>B90&amp;C90&amp;A90&amp;C90&amp;F10</f>
+        <v>ren "15_slow_14_HoloData.csv" "15_medium_14_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <f>E11&amp;A11&amp;E11</f>
+        <v>"15_slow_14_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="str">
+        <f>B91&amp;C91&amp;A91&amp;C91&amp;F11</f>
+        <v>ren "15_slow_14_POLGroundTruth.csv" "15_medium_14_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
+        <f>E12&amp;A12&amp;E12</f>
+        <v>"15_slow_15_HoloData.csv"</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" t="str">
+        <f>B92&amp;C92&amp;A92&amp;C92&amp;F12</f>
+        <v>ren "15_slow_15_HoloData.csv" "15_medium_15_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
+        <f>E13&amp;A13&amp;E13</f>
+        <v>"15_slow_15_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" t="str">
+        <f>B93&amp;C93&amp;A93&amp;C93&amp;F13</f>
+        <v>ren "15_slow_15_POLGroundTruth.csv" "15_medium_15_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
+        <f>E14&amp;A14&amp;E14</f>
+        <v>"15_slow_16_HoloData.csv"</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" t="str">
+        <f>B94&amp;C94&amp;A94&amp;C94&amp;F14</f>
+        <v>ren "15_slow_16_HoloData.csv" "15_medium_16_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
+        <f>E15&amp;A15&amp;E15</f>
+        <v>"15_slow_16_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" t="str">
+        <f>B95&amp;C95&amp;A95&amp;C95&amp;F15</f>
+        <v>ren "15_slow_16_POLGroundTruth.csv" "15_medium_16_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
+        <f>E16&amp;A16&amp;E16</f>
+        <v>"15_slow_17_HoloData.csv"</v>
+      </c>
+      <c r="B96" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" t="str">
+        <f>B96&amp;C96&amp;A96&amp;C96&amp;F16</f>
+        <v>ren "15_slow_17_HoloData.csv" "15_medium_17_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
+        <f>E17&amp;A17&amp;E17</f>
+        <v>"15_slow_17_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" t="str">
+        <f>B97&amp;C97&amp;A97&amp;C97&amp;F17</f>
+        <v>ren "15_slow_17_POLGroundTruth.csv" "15_medium_17_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
+        <f>E18&amp;A18&amp;E18</f>
+        <v>"15_slow_18_HoloData.csv"</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" t="str">
+        <f>B98&amp;C98&amp;A98&amp;C98&amp;F18</f>
+        <v>ren "15_slow_18_HoloData.csv" "15_medium_18_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <f>E19&amp;A19&amp;E19</f>
+        <v>"15_slow_18_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" t="str">
+        <f>B99&amp;C99&amp;A99&amp;C99&amp;F19</f>
+        <v>ren "15_slow_18_POLGroundTruth.csv" "15_medium_18_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <f>E20&amp;A20&amp;E20</f>
+        <v>"15_slow_19_HoloData.csv"</v>
+      </c>
+      <c r="B100" t="s">
+        <v>93</v>
+      </c>
+      <c r="C100" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" t="str">
+        <f>B100&amp;C100&amp;A100&amp;C100&amp;F20</f>
+        <v>ren "15_slow_19_HoloData.csv" "15_medium_19_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
+        <f>E21&amp;A21&amp;E21</f>
+        <v>"15_slow_19_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" t="str">
+        <f>B101&amp;C101&amp;A101&amp;C101&amp;F21</f>
+        <v>ren "15_slow_19_POLGroundTruth.csv" "15_medium_19_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
+        <f>E22&amp;A22&amp;E22</f>
+        <v>"15_slow_1_HoloData.csv"</v>
+      </c>
+      <c r="B102" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" t="str">
+        <f>B102&amp;C102&amp;A102&amp;C102&amp;F22</f>
+        <v>ren "15_slow_1_HoloData.csv" "15_medium_1_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
+        <f>E23&amp;A23&amp;E23</f>
+        <v>"15_slow_1_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B103" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" t="str">
+        <f>B103&amp;C103&amp;A103&amp;C103&amp;F23</f>
+        <v>ren "15_slow_1_POLGroundTruth.csv" "15_medium_1_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="str">
+        <f>E24&amp;A24&amp;E24</f>
+        <v>"15_slow_20_HoloData.csv"</v>
+      </c>
+      <c r="B104" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" t="str">
+        <f>B104&amp;C104&amp;A104&amp;C104&amp;F24</f>
+        <v>ren "15_slow_20_HoloData.csv" "15_medium_20_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="str">
+        <f>E25&amp;A25&amp;E25</f>
+        <v>"15_slow_20_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B105" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" t="str">
+        <f>B105&amp;C105&amp;A105&amp;C105&amp;F25</f>
+        <v>ren "15_slow_20_POLGroundTruth.csv" "15_medium_20_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="str">
+        <f>E26&amp;A26&amp;E26</f>
+        <v>"15_slow_21_HoloData.csv"</v>
+      </c>
+      <c r="B106" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106" t="str">
+        <f>B106&amp;C106&amp;A106&amp;C106&amp;F26</f>
+        <v>ren "15_slow_21_HoloData.csv" "15_medium_21_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="str">
+        <f>E27&amp;A27&amp;E27</f>
+        <v>"15_slow_21_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" t="s">
+        <v>95</v>
+      </c>
+      <c r="D107" t="str">
+        <f>B107&amp;C107&amp;A107&amp;C107&amp;F27</f>
+        <v>ren "15_slow_21_POLGroundTruth.csv" "15_medium_21_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="str">
+        <f>E28&amp;A28&amp;E28</f>
+        <v>"15_slow_22_HoloData.csv"</v>
+      </c>
+      <c r="B108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" t="str">
+        <f>B108&amp;C108&amp;A108&amp;C108&amp;F28</f>
+        <v>ren "15_slow_22_HoloData.csv" "15_medium_22_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="str">
+        <f>E29&amp;A29&amp;E29</f>
+        <v>"15_slow_22_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" t="str">
+        <f>B109&amp;C109&amp;A109&amp;C109&amp;F29</f>
+        <v>ren "15_slow_22_POLGroundTruth.csv" "15_medium_22_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="str">
+        <f>E30&amp;A30&amp;E30</f>
+        <v>"15_slow_23_HoloData.csv"</v>
+      </c>
+      <c r="B110" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" t="str">
+        <f>B110&amp;C110&amp;A110&amp;C110&amp;F30</f>
+        <v>ren "15_slow_23_HoloData.csv" "15_medium_23_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="str">
+        <f>E31&amp;A31&amp;E31</f>
+        <v>"15_slow_23_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B111" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" t="str">
+        <f>B111&amp;C111&amp;A111&amp;C111&amp;F31</f>
+        <v>ren "15_slow_23_POLGroundTruth.csv" "15_medium_23_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="str">
+        <f>E32&amp;A32&amp;E32</f>
+        <v>"15_slow_24_HoloData.csv"</v>
+      </c>
+      <c r="B112" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" t="str">
+        <f>B112&amp;C112&amp;A112&amp;C112&amp;F32</f>
+        <v>ren "15_slow_24_HoloData.csv" "15_medium_24_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="str">
+        <f>E33&amp;A33&amp;E33</f>
+        <v>"15_slow_24_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B113" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" t="str">
+        <f>B113&amp;C113&amp;A113&amp;C113&amp;F33</f>
+        <v>ren "15_slow_24_POLGroundTruth.csv" "15_medium_24_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="str">
+        <f>E34&amp;A34&amp;E34</f>
+        <v>"15_slow_25_HoloData.csv"</v>
+      </c>
+      <c r="B114" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" t="str">
+        <f>B114&amp;C114&amp;A114&amp;C114&amp;F34</f>
+        <v>ren "15_slow_25_HoloData.csv" "15_medium_25_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="str">
+        <f>E35&amp;A35&amp;E35</f>
+        <v>"15_slow_25_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" t="str">
+        <f>B115&amp;C115&amp;A115&amp;C115&amp;F35</f>
+        <v>ren "15_slow_25_POLGroundTruth.csv" "15_medium_25_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="str">
+        <f>E36&amp;A36&amp;E36</f>
+        <v>"15_slow_26_HoloData.csv"</v>
+      </c>
+      <c r="B116" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" t="str">
+        <f>B116&amp;C116&amp;A116&amp;C116&amp;F36</f>
+        <v>ren "15_slow_26_HoloData.csv" "15_medium_26_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="str">
+        <f>E37&amp;A37&amp;E37</f>
+        <v>"15_slow_26_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B117" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" t="str">
+        <f>B117&amp;C117&amp;A117&amp;C117&amp;F37</f>
+        <v>ren "15_slow_26_POLGroundTruth.csv" "15_medium_26_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="str">
+        <f>E38&amp;A38&amp;E38</f>
+        <v>"15_slow_27_HoloData.csv"</v>
+      </c>
+      <c r="B118" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" t="s">
+        <v>95</v>
+      </c>
+      <c r="D118" t="str">
+        <f>B118&amp;C118&amp;A118&amp;C118&amp;F38</f>
+        <v>ren "15_slow_27_HoloData.csv" "15_medium_27_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="str">
+        <f>E39&amp;A39&amp;E39</f>
+        <v>"15_slow_27_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B119" t="s">
+        <v>93</v>
+      </c>
+      <c r="C119" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" t="str">
+        <f>B119&amp;C119&amp;A119&amp;C119&amp;F39</f>
+        <v>ren "15_slow_27_POLGroundTruth.csv" "15_medium_27_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="str">
+        <f>E40&amp;A40&amp;E40</f>
+        <v>"15_slow_28_HoloData.csv"</v>
+      </c>
+      <c r="B120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" t="str">
+        <f>B120&amp;C120&amp;A120&amp;C120&amp;F40</f>
+        <v>ren "15_slow_28_HoloData.csv" "15_medium_28_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="str">
+        <f>E41&amp;A41&amp;E41</f>
+        <v>"15_slow_28_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B121" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" t="s">
+        <v>95</v>
+      </c>
+      <c r="D121" t="str">
+        <f>B121&amp;C121&amp;A121&amp;C121&amp;F41</f>
+        <v>ren "15_slow_28_POLGroundTruth.csv" "15_medium_28_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="str">
+        <f>E42&amp;A42&amp;E42</f>
+        <v>"15_slow_29_HoloData.csv"</v>
+      </c>
+      <c r="B122" t="s">
+        <v>93</v>
+      </c>
+      <c r="C122" t="s">
+        <v>95</v>
+      </c>
+      <c r="D122" t="str">
+        <f>B122&amp;C122&amp;A122&amp;C122&amp;F42</f>
+        <v>ren "15_slow_29_HoloData.csv" "15_medium_29_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="str">
+        <f>E43&amp;A43&amp;E43</f>
+        <v>"15_slow_29_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B123" t="s">
+        <v>93</v>
+      </c>
+      <c r="C123" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" t="str">
+        <f>B123&amp;C123&amp;A123&amp;C123&amp;F43</f>
+        <v>ren "15_slow_29_POLGroundTruth.csv" "15_medium_29_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="str">
+        <f>E44&amp;A44&amp;E44</f>
+        <v>"15_slow_2_HoloData.csv"</v>
+      </c>
+      <c r="B124" t="s">
+        <v>93</v>
+      </c>
+      <c r="C124" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" t="str">
+        <f>B124&amp;C124&amp;A124&amp;C124&amp;F44</f>
+        <v>ren "15_slow_2_HoloData.csv" "15_medium_2_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="str">
+        <f>E45&amp;A45&amp;E45</f>
+        <v>"15_slow_2_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B125" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" t="str">
+        <f>B125&amp;C125&amp;A125&amp;C125&amp;F45</f>
+        <v>ren "15_slow_2_POLGroundTruth.csv" "15_medium_2_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="str">
+        <f>E46&amp;A46&amp;E46</f>
+        <v>"15_slow_30_HoloData.csv"</v>
+      </c>
+      <c r="B126" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" t="s">
+        <v>95</v>
+      </c>
+      <c r="D126" t="str">
+        <f>B126&amp;C126&amp;A126&amp;C126&amp;F46</f>
+        <v>ren "15_slow_30_HoloData.csv" "15_medium_30_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="str">
+        <f>E47&amp;A47&amp;E47</f>
+        <v>"15_slow_30_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B127" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" t="str">
+        <f>B127&amp;C127&amp;A127&amp;C127&amp;F47</f>
+        <v>ren "15_slow_30_POLGroundTruth.csv" "15_medium_30_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="str">
+        <f>E48&amp;A48&amp;E48</f>
+        <v>"15_slow_3_HoloData.csv"</v>
+      </c>
+      <c r="B128" t="s">
+        <v>93</v>
+      </c>
+      <c r="C128" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" t="str">
+        <f>B128&amp;C128&amp;A128&amp;C128&amp;F48</f>
+        <v>ren "15_slow_3_HoloData.csv" "15_medium_3_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="str">
+        <f>E49&amp;A49&amp;E49</f>
+        <v>"15_slow_3_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B129" t="s">
+        <v>93</v>
+      </c>
+      <c r="C129" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129" t="str">
+        <f>B129&amp;C129&amp;A129&amp;C129&amp;F49</f>
+        <v>ren "15_slow_3_POLGroundTruth.csv" "15_medium_3_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="str">
+        <f>E50&amp;A50&amp;E50</f>
+        <v>"15_slow_4_HoloData.csv"</v>
+      </c>
+      <c r="B130" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" t="s">
+        <v>95</v>
+      </c>
+      <c r="D130" t="str">
+        <f>B130&amp;C130&amp;A130&amp;C130&amp;F50</f>
+        <v>ren "15_slow_4_HoloData.csv" "15_medium_4_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="str">
+        <f>E51&amp;A51&amp;E51</f>
+        <v>"15_slow_4_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B131" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" t="s">
+        <v>95</v>
+      </c>
+      <c r="D131" t="str">
+        <f>B131&amp;C131&amp;A131&amp;C131&amp;F51</f>
+        <v>ren "15_slow_4_POLGroundTruth.csv" "15_medium_4_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="str">
+        <f>E52&amp;A52&amp;E52</f>
+        <v>"15_slow_5_HoloData.csv"</v>
+      </c>
+      <c r="B132" t="s">
+        <v>93</v>
+      </c>
+      <c r="C132" t="s">
+        <v>95</v>
+      </c>
+      <c r="D132" t="str">
+        <f>B132&amp;C132&amp;A132&amp;C132&amp;F52</f>
+        <v>ren "15_slow_5_HoloData.csv" "15_medium_5_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="str">
+        <f>E53&amp;A53&amp;E53</f>
+        <v>"15_slow_5_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B133" t="s">
+        <v>93</v>
+      </c>
+      <c r="C133" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133" t="str">
+        <f>B133&amp;C133&amp;A133&amp;C133&amp;F53</f>
+        <v>ren "15_slow_5_POLGroundTruth.csv" "15_medium_5_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="str">
+        <f>E54&amp;A54&amp;E54</f>
+        <v>"15_slow_6_HoloData.csv"</v>
+      </c>
+      <c r="B134" t="s">
+        <v>93</v>
+      </c>
+      <c r="C134" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134" t="str">
+        <f>B134&amp;C134&amp;A134&amp;C134&amp;F54</f>
+        <v>ren "15_slow_6_HoloData.csv" "15_medium_6_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="str">
+        <f>E55&amp;A55&amp;E55</f>
+        <v>"15_slow_6_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B135" t="s">
+        <v>93</v>
+      </c>
+      <c r="C135" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135" t="str">
+        <f>B135&amp;C135&amp;A135&amp;C135&amp;F55</f>
+        <v>ren "15_slow_6_POLGroundTruth.csv" "15_medium_6_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="str">
+        <f>E56&amp;A56&amp;E56</f>
+        <v>"15_slow_7_HoloData.csv"</v>
+      </c>
+      <c r="B136" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" t="s">
+        <v>95</v>
+      </c>
+      <c r="D136" t="str">
+        <f>B136&amp;C136&amp;A136&amp;C136&amp;F56</f>
+        <v>ren "15_slow_7_HoloData.csv" "15_medium_7_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="str">
+        <f>E57&amp;A57&amp;E57</f>
+        <v>"15_slow_7_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B137" t="s">
+        <v>93</v>
+      </c>
+      <c r="C137" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" t="str">
+        <f>B137&amp;C137&amp;A137&amp;C137&amp;F57</f>
+        <v>ren "15_slow_7_POLGroundTruth.csv" "15_medium_7_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="str">
+        <f>E58&amp;A58&amp;E58</f>
+        <v>"15_slow_8_HoloData.csv"</v>
+      </c>
+      <c r="B138" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" t="str">
+        <f>B138&amp;C138&amp;A138&amp;C138&amp;F58</f>
+        <v>ren "15_slow_8_HoloData.csv" "15_medium_8_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="str">
+        <f>E59&amp;A59&amp;E59</f>
+        <v>"15_slow_8_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B139" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" t="s">
+        <v>95</v>
+      </c>
+      <c r="D139" t="str">
+        <f>B139&amp;C139&amp;A139&amp;C139&amp;F59</f>
+        <v>ren "15_slow_8_POLGroundTruth.csv" "15_medium_8_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="str">
+        <f>E60&amp;A60&amp;E60</f>
+        <v>"15_slow_9_HoloData.csv"</v>
+      </c>
+      <c r="B140" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" t="s">
+        <v>95</v>
+      </c>
+      <c r="D140" t="str">
+        <f>B140&amp;C140&amp;A140&amp;C140&amp;F60</f>
+        <v>ren "15_slow_9_HoloData.csv" "15_medium_9_HoloData.csv"</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="str">
+        <f>E61&amp;A61&amp;E61</f>
+        <v>"15_slow_9_POLGroundTruth.csv"</v>
+      </c>
+      <c r="B141" t="s">
+        <v>93</v>
+      </c>
+      <c r="C141" t="s">
+        <v>95</v>
+      </c>
+      <c r="D141" t="str">
+        <f>B141&amp;C141&amp;A141&amp;C141&amp;F61</f>
+        <v>ren "15_slow_9_POLGroundTruth.csv" "15_medium_9_POLGroundTruth.csv"</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="str">
+        <f>E62&amp;A62&amp;E62</f>
+        <v>"15_test_EMG_data_slow.csv"</v>
+      </c>
+      <c r="B142" t="s">
+        <v>93</v>
+      </c>
+      <c r="C142" t="s">
+        <v>95</v>
+      </c>
+      <c r="D142" t="str">
+        <f>B142&amp;C142&amp;A142&amp;C142&amp;F62</f>
+        <v>ren "15_test_EMG_data_slow.csv" "15_test_EMG_data_medium.csv"</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C240" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C243" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C244" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C247" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C249" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
         <v>95</v>
       </c>
     </row>
@@ -14761,7 +18042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72499B5B-0CE7-4DAE-BCC5-211CB9F87BA9}">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A108" workbookViewId="0">
       <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
